--- a/biology/Botanique/Matooke/Matooke.xlsx
+++ b/biology/Botanique/Matooke/Matooke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matooke (ou matoke) est un type de banane plantain cultivée dans les régions d'altitude des Grands Lacs africains, principalement en Ouganda et désigne également le mets qui en est constitué.
 Le fruit est large, de taille moyenne avec des angles prononcés. Il est consommé encore vert et dur. Le goût est légèrement amer ou acidulé et n'est jamais sucré.
@@ -513,7 +525,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La préparation traditionnelle est de peler le matooke, puis de le bouillir ou cuire à la vapeur, enrobé dans les feuilles du bananier. Au fur et à mesure de la cuisson, le matooke, originellement blanc et dur, ramollit et jaunit. Le matooke est ensuite écrasé en purée.
 </t>
@@ -544,7 +558,9 @@
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matooke peut être servi avec un ragoût de chèvre ou de bœuf ou une sauce d'arachides et des légumes.
 Le matooke peut être incorporé directement dans la cuisson d'un ragoût.
